--- a/Data/SeenRx/SeenRx_CCX.xlsx
+++ b/Data/SeenRx/SeenRx_CCX.xlsx
@@ -14,159 +14,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>FFTR</t>
   </si>
   <si>
-    <t>LIGAZID Seen Rx</t>
-  </si>
-  <si>
-    <t>EMAZID Seen Rx</t>
-  </si>
-  <si>
-    <t>LIPICON Seen Rx</t>
-  </si>
-  <si>
-    <t>AGLIP Seen Rx</t>
-  </si>
-  <si>
-    <t>CIFIBET Seen Rx</t>
-  </si>
-  <si>
-    <t>AMLEVO Seen Rx</t>
-  </si>
-  <si>
-    <t>CARDOBIS Seen Rx</t>
-  </si>
-  <si>
-    <t>RIVAROX Seen Rx</t>
-  </si>
-  <si>
-    <t>Noclog Seen Rx</t>
+    <t>LIGAZID</t>
+  </si>
+  <si>
+    <t>EMAZID</t>
+  </si>
+  <si>
+    <t>LIPICON</t>
+  </si>
+  <si>
+    <t>AGLIP</t>
+  </si>
+  <si>
+    <t>CIFIBET</t>
+  </si>
+  <si>
+    <t>AMLEVO</t>
+  </si>
+  <si>
+    <t>CARDOBIS</t>
+  </si>
+  <si>
+    <t>RIVAROX</t>
+  </si>
+  <si>
+    <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CCX</t>
+  </si>
+  <si>
+    <t>CCX10</t>
+  </si>
+  <si>
+    <t>CCX11</t>
+  </si>
+  <si>
+    <t>CCX12</t>
+  </si>
+  <si>
+    <t>CCX13</t>
+  </si>
+  <si>
+    <t>CCX14</t>
+  </si>
+  <si>
+    <t>CCX15</t>
+  </si>
+  <si>
+    <t>CCX16</t>
+  </si>
+  <si>
+    <t>CCX17</t>
   </si>
   <si>
     <t>CCX20</t>
   </si>
   <si>
+    <t>CCX21</t>
+  </si>
+  <si>
+    <t>CCX22</t>
+  </si>
+  <si>
+    <t>CCX23</t>
+  </si>
+  <si>
+    <t>CCX24</t>
+  </si>
+  <si>
+    <t>CCX25</t>
+  </si>
+  <si>
+    <t>CCX26</t>
+  </si>
+  <si>
+    <t>CCX27</t>
+  </si>
+  <si>
+    <t>CCX30</t>
+  </si>
+  <si>
+    <t>CCX31</t>
+  </si>
+  <si>
+    <t>CCX32</t>
+  </si>
+  <si>
+    <t>CCX33</t>
+  </si>
+  <si>
+    <t>CCX34</t>
+  </si>
+  <si>
+    <t>CCX35</t>
+  </si>
+  <si>
+    <t>CCX40</t>
+  </si>
+  <si>
+    <t>CCX41</t>
+  </si>
+  <si>
+    <t>CCX42</t>
+  </si>
+  <si>
+    <t>CCX43</t>
+  </si>
+  <si>
+    <t>CCX44</t>
+  </si>
+  <si>
+    <t>CCX45</t>
+  </si>
+  <si>
+    <t>CCX46</t>
+  </si>
+  <si>
     <t>CCX50</t>
   </si>
   <si>
-    <t>CCX40</t>
-  </si>
-  <si>
-    <t>CCX10</t>
+    <t>CCX51</t>
+  </si>
+  <si>
+    <t>CCX52</t>
+  </si>
+  <si>
+    <t>CCX53</t>
+  </si>
+  <si>
+    <t>CCX54</t>
+  </si>
+  <si>
+    <t>CCX55</t>
+  </si>
+  <si>
+    <t>CCX56</t>
+  </si>
+  <si>
+    <t>CCX57</t>
+  </si>
+  <si>
+    <t>CCX58</t>
   </si>
   <si>
     <t>CCX60</t>
   </si>
   <si>
-    <t>CCX30</t>
-  </si>
-  <si>
-    <t>CCX24</t>
-  </si>
-  <si>
-    <t>CCX51</t>
-  </si>
-  <si>
-    <t>CCX52</t>
-  </si>
-  <si>
-    <t>CCX46</t>
-  </si>
-  <si>
-    <t>CCX11</t>
+    <t>CCX61</t>
+  </si>
+  <si>
+    <t>CCX62</t>
+  </si>
+  <si>
+    <t>CCX63</t>
+  </si>
+  <si>
+    <t>CCX64</t>
   </si>
   <si>
     <t>CCX65</t>
-  </si>
-  <si>
-    <t>CCX23</t>
-  </si>
-  <si>
-    <t>CCX22</t>
-  </si>
-  <si>
-    <t>CCX16</t>
-  </si>
-  <si>
-    <t>CCX12</t>
-  </si>
-  <si>
-    <t>CCX55</t>
-  </si>
-  <si>
-    <t>CCX26</t>
-  </si>
-  <si>
-    <t>CCX43</t>
-  </si>
-  <si>
-    <t>CCX25</t>
-  </si>
-  <si>
-    <t>CCX21</t>
-  </si>
-  <si>
-    <t>CCX34</t>
-  </si>
-  <si>
-    <t>CCX17</t>
-  </si>
-  <si>
-    <t>CCX57</t>
-  </si>
-  <si>
-    <t>CCX64</t>
-  </si>
-  <si>
-    <t>CCX35</t>
-  </si>
-  <si>
-    <t>CCX44</t>
-  </si>
-  <si>
-    <t>CCX54</t>
-  </si>
-  <si>
-    <t>CCX41</t>
-  </si>
-  <si>
-    <t>CCX62</t>
-  </si>
-  <si>
-    <t>CCX14</t>
-  </si>
-  <si>
-    <t>CCX53</t>
-  </si>
-  <si>
-    <t>CCX56</t>
-  </si>
-  <si>
-    <t>CCX13</t>
-  </si>
-  <si>
-    <t>CCX31</t>
-  </si>
-  <si>
-    <t>CCX61</t>
-  </si>
-  <si>
-    <t>CCX42</t>
-  </si>
-  <si>
-    <t>CCX33</t>
-  </si>
-  <si>
-    <t>CCX63</t>
-  </si>
-  <si>
-    <t>CCX32</t>
-  </si>
-  <si>
-    <t>CCX45</t>
   </si>
 </sst>
 </file>
@@ -524,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,31 +579,31 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
       <c r="G2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H2">
+        <v>77</v>
+      </c>
+      <c r="I2">
         <v>12</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -599,31 +611,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>7</v>
       </c>
       <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
         <v>4</v>
       </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
       <c r="J3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -631,31 +643,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -663,31 +675,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -695,28 +707,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -727,31 +739,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -759,10 +771,10 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -777,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -791,13 +803,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -806,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -838,16 +850,16 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -855,31 +867,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -890,10 +902,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -902,16 +914,16 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -919,13 +931,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -934,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -951,31 +963,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -983,31 +995,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1015,13 +1027,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1030,16 +1042,16 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1053,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1062,16 +1074,16 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1079,19 +1091,19 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1111,31 +1123,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1143,10 +1155,10 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1158,16 +1170,16 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1175,10 +1187,10 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1187,16 +1199,16 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1213,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1222,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -1231,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1239,13 +1251,13 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1254,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1271,10 +1283,10 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1283,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1292,10 +1304,10 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1303,31 +1315,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1335,25 +1347,25 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1367,25 +1379,25 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1399,13 +1411,13 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1417,13 +1429,13 @@
         <v>2</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1431,7 +1443,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1440,22 +1452,22 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1463,13 +1475,13 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1481,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1495,10 +1507,10 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1507,13 +1519,13 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1527,31 +1539,31 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1559,7 +1571,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1574,13 +1586,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1597,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1615,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1623,13 +1635,13 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1638,16 +1650,16 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1658,10 +1670,10 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1670,16 +1682,16 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1687,13 +1699,13 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1705,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1719,13 +1731,13 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1751,10 +1763,10 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1763,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -1783,25 +1795,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -1815,31 +1827,31 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1856,21 +1868,149 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>1</v>
       </c>
     </row>

--- a/Data/SeenRx/SeenRx_CCX.xlsx
+++ b/Data/SeenRx/SeenRx_CCX.xlsx
@@ -579,31 +579,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -611,31 +611,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
       <c r="I3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -643,13 +643,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -675,13 +675,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -707,31 +707,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -739,31 +739,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -803,13 +803,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -853,13 +853,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -867,31 +867,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -899,13 +899,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -917,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -931,13 +931,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -966,28 +966,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -995,13 +995,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1027,13 +1027,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1091,13 +1091,13 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1123,31 +1123,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
       <c r="I19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1155,10 +1155,10 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1170,16 +1170,16 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1187,7 +1187,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1199,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1234,16 +1234,16 @@
         <v>0</v>
       </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <v>2</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1251,7 +1251,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1283,10 +1283,10 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1295,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1315,31 +1315,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1347,25 +1347,25 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1379,25 +1379,25 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
         <v>2</v>
       </c>
-      <c r="C27">
+      <c r="H27">
         <v>2</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>3</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1443,28 +1443,28 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1519,13 +1519,13 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1554,16 +1554,16 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1571,13 +1571,13 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1586,16 +1586,16 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1603,10 +1603,10 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1635,13 +1635,13 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1653,13 +1653,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1667,7 +1667,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1682,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1778,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -1827,31 +1827,31 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>2</v>
       </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>5</v>
-      </c>
       <c r="H41">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1859,7 +1859,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -1923,10 +1923,10 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1955,7 +1955,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -1987,13 +1987,13 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2002,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SeenRx/SeenRx_CCX.xlsx
+++ b/Data/SeenRx/SeenRx_CCX.xlsx
@@ -579,31 +579,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H2">
+        <v>41</v>
+      </c>
+      <c r="I2">
         <v>13</v>
       </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
       <c r="J2">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -611,31 +611,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
         <v>6</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -643,13 +643,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -725,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -739,10 +739,10 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -806,10 +806,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -853,13 +853,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -867,13 +867,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -882,16 +882,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -899,13 +899,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -917,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -963,13 +963,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -995,13 +995,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1027,10 +1027,10 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1155,7 +1155,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1240,10 +1240,10 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1251,10 +1251,10 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1315,31 +1315,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1347,7 +1347,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1362,16 +1362,16 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1379,10 +1379,10 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
         <v>3</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1443,28 +1443,28 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
         <v>3</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1507,13 +1507,13 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1542,25 +1542,25 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1571,25 +1571,25 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1635,13 +1635,13 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1705,16 +1705,16 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -1827,28 +1827,28 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -1859,22 +1859,22 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -1955,10 +1955,10 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -1987,13 +1987,13 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>0</v>

--- a/Data/SeenRx/SeenRx_CCX.xlsx
+++ b/Data/SeenRx/SeenRx_CCX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>FFTR</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>BEMPID</t>
+  </si>
+  <si>
+    <t>AROTIDE</t>
+  </si>
+  <si>
+    <t>FOBUNID</t>
   </si>
   <si>
     <t>CCX</t>
@@ -536,13 +545,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,115 +582,151 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
         <v>27</v>
       </c>
-      <c r="D2">
-        <v>23</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>25</v>
       </c>
       <c r="H2">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J2">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,27 +738,36 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -722,53 +776,71 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -797,16 +869,25 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -818,21 +899,30 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -841,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -853,508 +943,652 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
         <v>10</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
         <v>3</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
+      <c r="H25">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>4</v>
       </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25">
-        <v>11</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>6</v>
-      </c>
-      <c r="H25">
-        <v>11</v>
-      </c>
-      <c r="I25">
-        <v>6</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
       <c r="E26">
         <v>0</v>
       </c>
@@ -1362,85 +1596,112 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>4</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <v>3</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -1452,10 +1713,10 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1464,56 +1725,74 @@
         <v>2</v>
       </c>
       <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>3</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1533,202 +1812,265 @@
       <c r="J31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
         <v>5</v>
       </c>
-      <c r="C32">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>15</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>3</v>
       </c>
-      <c r="D32">
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>4</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32">
-        <v>7</v>
-      </c>
-      <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>4</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1757,19 +2099,28 @@
       <c r="J38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1778,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -1789,10 +2140,19 @@
       <c r="J39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1821,60 +2181,78 @@
       <c r="J40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
         <v>4</v>
       </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -1885,13 +2263,22 @@
       <c r="J42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1906,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -1915,18 +2302,27 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1935,30 +2331,39 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1970,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -1981,10 +2386,19 @@
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2002,15 +2416,24 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
         <v>0</v>
       </c>
     </row>
